--- a/task-3.xlsx
+++ b/task-3.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koooo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koooo\Desktop\Avito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9353450A-8981-4C4F-A518-94CD458D245A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AE6072-A5A2-4E7D-BB42-E0E55D8C6996}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26490" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -98,9 +98,6 @@
     <t>1Ввести в  поле ввода "Телефон или Электронная почта" значение 89081076197</t>
   </si>
   <si>
-    <t>Автоизация по электронной почте</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1 Перейти на сайт </t>
     </r>
@@ -321,12 +318,90 @@
   <si>
     <t>2 Поле ввода "пароль" оставить пустым</t>
   </si>
+  <si>
+    <t>Авторизация по электронной почте</t>
+  </si>
+  <si>
+    <t>Проверка входа в профиль после нажатия  галочки в чекбоксе "Запомнить пароль"</t>
+  </si>
+  <si>
+    <t>4 Нажать на кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>3 Нажать галочку в чекбоксе "Запомнить пароль"</t>
+  </si>
+  <si>
+    <t>5 Выйти из кабинета</t>
+  </si>
+  <si>
+    <t>6 Нажать на кнопку "Вход или регистрация", поверх окна появляется окно "Войти как", выбираем профиль . Автоматически заполняются поля логина и пароля, нажимаем на кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>3 Поставить галочку в чекбоксе "Запомнить пароль"</t>
+  </si>
+  <si>
+    <t>3 Данные пароля должны экранизировать кружками, в правой части поля находится  иконка включения\выключения отображения пароля.</t>
+  </si>
+  <si>
+    <t>4 Нажать на иконку, нажать на кнопку "войти"</t>
+  </si>
+  <si>
+    <t>1 Оставить оба поля пустыми</t>
+  </si>
+  <si>
+    <t>2 Нажать на кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>Поля выделены красным цветом, кнопка "Войти" не активна</t>
+  </si>
+  <si>
+    <t>2 Ввести в поле ввода "Пароль" значение QWERTY12 (8 знаков)</t>
+  </si>
+  <si>
+    <t>Отображение "неправильный пароль"</t>
+  </si>
+  <si>
+    <t>Проверка поля ввода пароля с верхним регистром, все значения</t>
+  </si>
+  <si>
+    <t>Проверка поля ввода пароля с верхним регистром, одно значение</t>
+  </si>
+  <si>
+    <t>2 Ввести в поле ввода "Пароль" значение Qwerty12 (8 знаков)</t>
+  </si>
+  <si>
+    <t>Проверка  поля логина состоящий из одних пробелов</t>
+  </si>
+  <si>
+    <t>1Ввести в поле ввода "Телефон или электронная почта" значение из одних пробелов</t>
+  </si>
+  <si>
+    <t>Поле логина выделено красным цветом, кнопка "Войти" не активна</t>
+  </si>
+  <si>
+    <t>Проверка  поля пароля состоящий из одних пробелов</t>
+  </si>
+  <si>
+    <t>1Ввести в поле ввода "Телефон или электронная почта" значение +79081076197</t>
+  </si>
+  <si>
+    <t>2 Ввести в поле ввода "Пароль" значение из одних пробелов</t>
+  </si>
+  <si>
+    <t>Поле пароля выделено красным цветом, кнопка "Войти" не активна</t>
+  </si>
+  <si>
+    <t>Проверка входа в профиль с раскрыванием  символов пароля</t>
+  </si>
+  <si>
+    <t>Проверка входа в профиль с пустыми полями</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -364,8 +439,22 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +485,32 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -457,11 +570,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -483,12 +648,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -496,26 +657,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,21 +971,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="67" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="74" customWidth="1"/>
+    <col min="6" max="6" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -772,11 +1010,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
@@ -788,7 +1026,7 @@
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -797,7 +1035,7 @@
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -805,13 +1043,13 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -823,15 +1061,15 @@
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -840,16 +1078,16 @@
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -860,30 +1098,30 @@
       <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
@@ -892,16 +1130,16 @@
       <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -912,30 +1150,30 @@
       <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
@@ -944,16 +1182,16 @@
       <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -964,479 +1202,910 @@
       <c r="D16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>5</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>7</v>
+      </c>
+      <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="C30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>8</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>9</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>10</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>11</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
         <v>12</v>
       </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="20" t="s">
+      <c r="B50" s="8">
+        <v>2</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="20"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>6</v>
-      </c>
-      <c r="B24" s="8">
-        <v>2</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
+      <c r="F52" s="21"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="20" t="s">
+      <c r="E56" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="33"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="33"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="33"/>
+    </row>
+    <row r="59" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="33"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="47"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E64" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="47"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="48"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="43"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="28"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>7</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
+      <c r="F73" s="28"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="20" t="s">
+      <c r="E76" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="28"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="49"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="F77" s="49"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8">
-        <v>2</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
+      <c r="E79" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F79" s="51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="20" t="s">
+      <c r="E80" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F80" s="28"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E81" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>9</v>
-      </c>
-      <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
+      <c r="F81" s="28"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" s="51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="20" t="s">
+      <c r="E84" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" s="28"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E85" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>10</v>
-      </c>
-      <c r="B40" s="8">
-        <v>2</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>11</v>
-      </c>
-      <c r="B44" s="8">
-        <v>1</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
-        <v>12</v>
-      </c>
-      <c r="B48" s="8">
-        <v>2</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="17"/>
+      <c r="F85" s="28"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="35"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F48:F50"/>
+  <mergeCells count="15">
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F50:F52"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F46:F48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D32" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D36" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D40" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D44" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D48" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D42" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D55" r:id="rId13" xr:uid="{695901F0-B478-4AEF-82BC-ED05A3A6892A}"/>
+    <hyperlink ref="D62" r:id="rId14" xr:uid="{4F8B90B5-2BB3-4A35-A864-DE6A290C141E}"/>
+    <hyperlink ref="D67" r:id="rId15" xr:uid="{3D1B3315-0A10-4E29-B34D-BC932984B132}"/>
+    <hyperlink ref="D71" r:id="rId16" xr:uid="{AA0F78F4-2E62-48E0-B238-A80741E7C6D1}"/>
+    <hyperlink ref="D75" r:id="rId17" xr:uid="{6B01C9BF-AD41-4F58-AC98-08C2D73E442B}"/>
+    <hyperlink ref="D79" r:id="rId18" xr:uid="{39C2B989-63DA-4B7C-948E-118DD99724C6}"/>
+    <hyperlink ref="D83" r:id="rId19" xr:uid="{62594997-C826-4BD2-8A64-BB812DC084B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" fitToWidth="0" orientation="portrait" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>